--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H2">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I2">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J2">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>29.689733845248</v>
+        <v>2.553187268104334</v>
       </c>
       <c r="R2">
-        <v>267.207604607232</v>
+        <v>22.978685412939</v>
       </c>
       <c r="S2">
-        <v>0.01549197483049645</v>
+        <v>0.001283363687219847</v>
       </c>
       <c r="T2">
-        <v>0.01549197483049645</v>
+        <v>0.001283363687219847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H3">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I3">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J3">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>28.05397778283734</v>
+        <v>4.446815169382</v>
       </c>
       <c r="R3">
-        <v>252.485800045536</v>
+        <v>40.02133652443801</v>
       </c>
       <c r="S3">
-        <v>0.01463844438526634</v>
+        <v>0.002235198797775778</v>
       </c>
       <c r="T3">
-        <v>0.01463844438526634</v>
+        <v>0.002235198797775778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H4">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I4">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J4">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>32.90330149827911</v>
+        <v>5.493491647185333</v>
       </c>
       <c r="R4">
-        <v>296.129713484512</v>
+        <v>49.441424824668</v>
       </c>
       <c r="S4">
-        <v>0.0171688005459558</v>
+        <v>0.00276131241296598</v>
       </c>
       <c r="T4">
-        <v>0.0171688005459558</v>
+        <v>0.002761312412965981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.383742</v>
       </c>
       <c r="I5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>126.905430024288</v>
+        <v>68.84968236585533</v>
       </c>
       <c r="R5">
-        <v>1142.148870218592</v>
+        <v>619.6471412926981</v>
       </c>
       <c r="S5">
-        <v>0.06621870502568583</v>
+        <v>0.03460740358875573</v>
       </c>
       <c r="T5">
-        <v>0.06621870502568583</v>
+        <v>0.03460740358875573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.383742</v>
       </c>
       <c r="I6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>119.913574603924</v>
@@ -818,10 +818,10 @@
         <v>1079.222171435316</v>
       </c>
       <c r="S6">
-        <v>0.06257038507929176</v>
+        <v>0.06027475116060124</v>
       </c>
       <c r="T6">
-        <v>0.06257038507929177</v>
+        <v>0.06027475116060126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.383742</v>
       </c>
       <c r="I7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>140.6414637336413</v>
+        <v>148.1384306247973</v>
       </c>
       <c r="R7">
-        <v>1265.773173602772</v>
+        <v>1333.245875623176</v>
       </c>
       <c r="S7">
-        <v>0.07338610806154067</v>
+        <v>0.07446202044034021</v>
       </c>
       <c r="T7">
-        <v>0.07338610806154068</v>
+        <v>0.07446202044034023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H8">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I8">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J8">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>471.105123678912</v>
+        <v>335.1637116418994</v>
       </c>
       <c r="R8">
-        <v>4239.946113110208</v>
+        <v>3016.473404777094</v>
       </c>
       <c r="S8">
-        <v>0.2458206178806741</v>
+        <v>0.1684705787814779</v>
       </c>
       <c r="T8">
-        <v>0.245820617880674</v>
+        <v>0.1684705787814779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H9">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I9">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J9">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>445.1495840938427</v>
+        <v>583.745303673772</v>
       </c>
       <c r="R9">
-        <v>4006.346256844584</v>
+        <v>5253.707733063948</v>
       </c>
       <c r="S9">
-        <v>0.2322771294796082</v>
+        <v>0.2934205158700593</v>
       </c>
       <c r="T9">
-        <v>0.2322771294796082</v>
+        <v>0.2934205158700593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H10">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I10">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J10">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>522.096762557281</v>
+        <v>721.1453203397252</v>
       </c>
       <c r="R10">
-        <v>4698.870863015528</v>
+        <v>6490.307883057528</v>
       </c>
       <c r="S10">
-        <v>0.2724278347114808</v>
+        <v>0.362484855260804</v>
       </c>
       <c r="T10">
-        <v>0.2724278347114808</v>
+        <v>0.3624848552608041</v>
       </c>
     </row>
   </sheetData>
